--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>利益相关者</t>
   </si>
@@ -57,33 +57,13 @@
   </si>
   <si>
     <t>徐鹏</t>
-  </si>
-  <si>
-    <t>杨枨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯宏仑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户代表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>办公地点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项目下达者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>gfx_1997</t>
-  </si>
-  <si>
-    <t>理四</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>hdctcw</t>
@@ -96,13 +76,33 @@
   <si>
     <t>图书馆</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_gr1jikiuk8di22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31401377@stu.zucc.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31501362@stu.zucc.edu.cn</t>
+  </si>
+  <si>
+    <t>31401401@stu.zucc.edu.cn</t>
+  </si>
+  <si>
+    <t>31504051@stu.zucc.edu.cn</t>
+  </si>
+  <si>
+    <t>31501346@stu.zucc.edu.cn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -177,15 +186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -209,33 +209,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,49 +228,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -296,15 +255,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -628,15 +588,12 @@
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" style="18" customWidth="1"/>
+    <col min="5" max="5" width="27" style="10" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,147 +606,120 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13588224816</v>
+      </c>
+      <c r="D2" s="3">
+        <v>13588224816</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6">
+        <v>17774009207</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12">
+        <v>15858262015</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15381123839</v>
+      </c>
+      <c r="D5" s="6">
+        <v>15381123839</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>13588224816</v>
-      </c>
-      <c r="D3" s="4">
-        <v>13588224816</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="6" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7">
-        <v>17774009207</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21">
-        <v>15858262015</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>15381123839</v>
-      </c>
-      <c r="D6" s="7">
-        <v>15381123839</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D6" s="6">
+        <v>15578223672</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xupeng8\Documents\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>利益相关者</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>图书馆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxid_gr1jikiuk8di22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -579,7 +575,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -628,7 +624,7 @@
         <v>13588224816</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>15</v>
@@ -648,7 +644,7 @@
         <v>17774009207</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
@@ -668,7 +664,7 @@
         <v>15858262015</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>15</v>
@@ -688,7 +684,7 @@
         <v>15381123839</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>15</v>
@@ -701,14 +697,14 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
+      <c r="C6" s="6">
+        <v>18957159554</v>
       </c>
       <c r="D6" s="6">
-        <v>15578223672</v>
+        <v>18957159554</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>15</v>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
-  <si>
-    <t>利益相关者</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>角色</t>
   </si>
@@ -107,10 +104,6 @@
   </si>
   <si>
     <t>项目下达者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -149,12 +142,48 @@
     <t>ubilabs@zucc.edu.cn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>tuuuuuuudou</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑楠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhengnan19961001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongweinan422</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31401388@stu.zucc.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理四-507</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -274,6 +303,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -283,16 +341,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -300,9 +355,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,9 +363,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,16 +372,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -343,6 +383,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -659,187 +729,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="27" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27" style="7" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13588224816</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>17774009207</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="D4" s="9">
+        <v>15858262015</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="47.45" customHeight="1" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>13588224816</v>
-      </c>
-      <c r="D2" s="3">
-        <v>13588224816</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="11" t="s">
+    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>15381123839</v>
+      </c>
+      <c r="D5" s="9">
+        <v>15381123839</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="9">
+        <v>15578223672</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6">
-        <v>17774009207</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="19">
+        <v>13071858629</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12">
-        <v>15858262015</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
+    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13">
+        <v>13357102333</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>15381123839</v>
-      </c>
-      <c r="D5" s="6">
-        <v>15381123839</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
+    <row r="9" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.15" customHeight="1" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
-        <v>15578223672</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="19">
-        <v>13357102333</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>28</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -243,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -323,15 +323,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -341,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,9 +400,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -925,14 +913,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>角色</t>
   </si>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>理四-507</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前三天预约</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +728,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -753,7 +761,9 @@
       <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -911,6 +921,9 @@
       </c>
       <c r="F9" s="16" t="s">
         <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>角色</t>
   </si>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>图书馆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxid_gr1jikiuk8di22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -728,7 +724,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -744,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -762,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -773,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>13588224816</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>14</v>
@@ -799,7 +795,7 @@
         <v>17774009207</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>14</v>
@@ -819,7 +815,7 @@
         <v>15858262015</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>14</v>
@@ -839,7 +835,7 @@
         <v>15381123839</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>14</v>
@@ -852,14 +848,14 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
+      <c r="C6" s="9">
+        <v>18957159554</v>
       </c>
       <c r="D6" s="9">
-        <v>15578223672</v>
+        <v>18957159554</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>14</v>
@@ -867,63 +863,63 @@
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="19">
         <v>13071858629</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13">
         <v>13357102333</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlzlzl\Documents\GitHub\prd\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>角色</t>
   </si>
@@ -147,18 +147,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户代表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>郑楠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>学生代表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>zhengnan19961001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,13 +172,53 @@
   </si>
   <si>
     <t>提前三天预约</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户代表、教师用户代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡子阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生用户代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzy714285</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31501333@stu.zucc.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kurisu_l@163.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_wqead67kqjz321</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求:访谈时间尽量在一小时内</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -315,16 +347,162 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -336,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,15 +557,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -400,10 +569,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,25 +928,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="27" style="7" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -758,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,19 +977,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>13588224816</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -801,7 +1009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -821,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -841,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -861,32 +1069,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>13071858629</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
@@ -901,35 +1109,74 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="B10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="26">
+        <v>18258871339</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{0889EA61-0B65-4ADF-8165-46578D4F07A3}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{2D2C77C9-A5D7-485E-8F1A-C195E4672494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlzlzl\Documents\GitHub\prd\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>角色</t>
   </si>
@@ -214,11 +214,15 @@
     <t>要求:访谈时间尽量在一小时内</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>理四-507隔壁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -452,17 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -514,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,16 +595,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,25 +918,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="27" style="7" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -969,7 +959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -989,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1109,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>30</v>
       </c>
@@ -1120,7 +1110,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="27" t="s">
@@ -1130,7 +1120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1131,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="28"/>
@@ -1149,7 +1139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>42</v>
       </c>
@@ -1162,19 +1152,21 @@
       <c r="D11" s="26">
         <v>18258871339</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="27" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{0889EA61-0B65-4ADF-8165-46578D4F07A3}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{2D2C77C9-A5D7-485E-8F1A-C195E4672494}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRD\Git\workspace\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\需求工程计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>角色</t>
   </si>
@@ -211,19 +211,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>理四-507隔壁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛倍良</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31501364@stu.zucc.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>w357216043</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>要求:访谈时间尽量在一小时内</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>理四-507隔壁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -306,198 +326,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,37 +335,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -550,9 +360,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -562,47 +369,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,244 +702,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="27" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27" style="3" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.15" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="47.45" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="12">
         <v>13588224816</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="32.450000000000003" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <v>17774009207</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="31.9" customHeight="1" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="12">
         <v>15858262015</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>15381123839</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="12">
         <v>15381123839</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="31.15" customHeight="1" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>18957159554</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>18957159554</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="9">
         <v>13071858629</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="7">
         <v>13357102333</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:7" ht="23.45" customHeight="1" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="11"/>
       <c r="G10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16">
+        <v>18258871339</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="26">
-        <v>18258871339</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="27" t="s">
+    <row r="12" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A12" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="16">
+        <v>17774009546</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1167,8 +970,9 @@
     <hyperlink ref="E9" r:id="rId3"/>
     <hyperlink ref="E10" r:id="rId4"/>
     <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/相关者基本信息.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRD\Git\workspace\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\需求工程计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>角色</t>
   </si>
@@ -179,26 +174,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>胡子阳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>学生用户代表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hzy714285</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>31501333@stu.zucc.edu.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙泉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员代表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -236,6 +215,50 @@
   </si>
   <si>
     <t>要求:访谈时间尽量在一小时内</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_d2gigqpw7nr811</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31501370@stu.zucc.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31501365@stu.zucc.edu.cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steady</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鹏羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉佩强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生用户代表代理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -312,16 +335,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -339,18 +362,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -360,25 +398,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -448,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -500,7 +523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -694,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -702,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -714,252 +737,276 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="27" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.15" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="28.15" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.45" customHeight="1" thickBot="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="47.45" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="4">
         <v>13588224816</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="4">
         <v>17774009207</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.9" customHeight="1" thickBot="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="31.9" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="4">
         <v>15858262015</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" ht="33" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="4">
         <v>15381123839</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="4">
         <v>15381123839</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.15" customHeight="1" thickBot="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" ht="31.15" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="4">
         <v>18957159554</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>18957159554</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>13071858629</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="12">
         <v>13357102333</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" ht="23.45" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:7" ht="25.5">
+      <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="16">
+        <v>15958998098</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="16">
         <v>18258871339</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D12" s="16">
         <v>17774009546</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="16">
+        <v>15858261996</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -971,8 +1018,9 @@
     <hyperlink ref="E10" r:id="rId4"/>
     <hyperlink ref="E11" r:id="rId5"/>
     <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>